--- a/examples/ex1.xlsx
+++ b/examples/ex1.xlsx
@@ -7,7 +7,7 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="a" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
@@ -395,77 +395,86 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2">
+    <row r="2" spans="1:6">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3">
+    <row r="3" spans="1:6">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
         <v>5</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4">
+    <row r="4" spans="1:6">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>9</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>10</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>11</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>12</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
